--- a/seoul_restaurant_data_all_final.xlsx
+++ b/seoul_restaurant_data_all_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ime/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyeeun/Documents/OSS_team-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B61C6CF-3C13-4649-AEB3-6E18A1469E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C55A93-F10F-F743-8B49-44A6021226D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16340" xr2:uid="{1AD42DBA-F3A3-DC40-9689-7563BB0FD1A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="264">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -861,125 +861,130 @@
     <t>12:00-03:00</t>
   </si>
   <si>
+    <t>을지깐깐</t>
+  </si>
+  <si>
+    <t>베트남음</t>
+  </si>
+  <si>
+    <t>진주회관</t>
+  </si>
+  <si>
+    <t>광화문특고기</t>
+  </si>
+  <si>
+    <t>11:00-24:00</t>
+  </si>
+  <si>
+    <t>금돼지식당</t>
+  </si>
+  <si>
+    <t>화육계</t>
+  </si>
+  <si>
+    <t>닭발</t>
+  </si>
+  <si>
+    <t>16:00-22:00</t>
+  </si>
+  <si>
+    <t>진작</t>
+  </si>
+  <si>
+    <t>유림면</t>
+  </si>
+  <si>
+    <t>하니칼국수</t>
+  </si>
+  <si>
+    <t>10:30-22:00</t>
+  </si>
+  <si>
+    <t>예약여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레이크타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recomint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30-17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:50-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:20-16:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>수</t>
-  </si>
-  <si>
-    <t>을지깐깐</t>
-  </si>
-  <si>
-    <t>베트남음</t>
-  </si>
-  <si>
-    <t>진주회관</t>
-  </si>
-  <si>
-    <t>광화문특고기</t>
-  </si>
-  <si>
-    <t>11:00-24:00</t>
-  </si>
-  <si>
-    <t>금돼지식당</t>
-  </si>
-  <si>
-    <t>화육계</t>
-  </si>
-  <si>
-    <t>닭발</t>
-  </si>
-  <si>
-    <t>16:00-22:00</t>
-  </si>
-  <si>
-    <t>진작</t>
-  </si>
-  <si>
-    <t>유림면</t>
-  </si>
-  <si>
-    <t>하니칼국수</t>
-  </si>
-  <si>
-    <t>10:30-22:00</t>
-  </si>
-  <si>
-    <t>예약여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브레이크타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:30-16:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:00-17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:30-17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-17:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:30-17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-16:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recomint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00-17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:30-17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:00-16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:00-17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:50-17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:20-16:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,7 +1355,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+      <selection activeCell="H101" sqref="H101:H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1379,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" t="s">
         <v>243</v>
-      </c>
-      <c r="H1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1398,11 +1403,17 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>262</v>
+      </c>
       <c r="F2">
         <v>4.38</v>
       </c>
       <c r="G2" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1418,11 +1429,17 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
       <c r="F3">
         <v>4.5999999999999996</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1445,7 +1462,10 @@
         <v>4.46</v>
       </c>
       <c r="G4" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1468,10 +1488,10 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="G5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1487,14 +1507,17 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
+      <c r="E6" t="s">
+        <v>262</v>
+      </c>
       <c r="F6">
         <v>4.66</v>
       </c>
       <c r="G6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" t="s">
         <v>247</v>
-      </c>
-      <c r="H6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1517,7 +1540,10 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="G7" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1533,11 +1559,17 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
+      <c r="E8" t="s">
+        <v>262</v>
+      </c>
       <c r="F8">
         <v>4.72</v>
       </c>
       <c r="G8" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1553,11 +1585,17 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
+      <c r="E9" t="s">
+        <v>262</v>
+      </c>
       <c r="F9">
         <v>4.9000000000000004</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1573,11 +1611,17 @@
       <c r="D10" t="s">
         <v>45</v>
       </c>
+      <c r="E10" t="s">
+        <v>262</v>
+      </c>
       <c r="F10">
         <v>4.5199999999999996</v>
       </c>
       <c r="G10" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H10" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1600,7 +1644,10 @@
         <v>4.32</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1623,7 +1670,10 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1646,7 +1696,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="G13" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1662,11 +1715,17 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
+      <c r="E14" t="s">
+        <v>262</v>
+      </c>
       <c r="F14">
         <v>4.7300000000000004</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H14" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1689,7 +1748,10 @@
         <v>4.75</v>
       </c>
       <c r="G15" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1705,14 +1767,17 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
+      <c r="E16" t="s">
+        <v>262</v>
+      </c>
       <c r="F16">
         <v>4.42</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1735,10 +1800,10 @@
         <v>4.78</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1761,10 +1826,10 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="G18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1780,11 +1845,17 @@
       <c r="D19" t="s">
         <v>25</v>
       </c>
+      <c r="E19" t="s">
+        <v>262</v>
+      </c>
       <c r="F19">
         <v>4.34</v>
       </c>
       <c r="G19" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H19" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1807,10 +1878,10 @@
         <v>4.46</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1826,14 +1897,17 @@
       <c r="D21" t="s">
         <v>66</v>
       </c>
+      <c r="E21" t="s">
+        <v>262</v>
+      </c>
       <c r="F21">
         <v>4.5199999999999996</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1849,11 +1923,17 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
+      <c r="E22" t="s">
+        <v>262</v>
+      </c>
       <c r="F22">
         <v>4.4800000000000004</v>
       </c>
       <c r="G22" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H22" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1876,10 +1956,10 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1895,11 +1975,17 @@
       <c r="D24" t="s">
         <v>71</v>
       </c>
+      <c r="E24" t="s">
+        <v>262</v>
+      </c>
       <c r="F24">
         <v>4.26</v>
       </c>
       <c r="G24" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H24" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1922,7 +2008,10 @@
         <v>4.32</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1938,14 +2027,17 @@
       <c r="D26" t="s">
         <v>83</v>
       </c>
+      <c r="E26" t="s">
+        <v>262</v>
+      </c>
       <c r="F26">
         <v>4.54</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1968,10 +2060,10 @@
         <v>4.42</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1987,14 +2079,17 @@
       <c r="D28" t="s">
         <v>59</v>
       </c>
+      <c r="E28" t="s">
+        <v>262</v>
+      </c>
       <c r="F28">
         <v>4.4400000000000004</v>
       </c>
       <c r="G28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2010,11 +2105,17 @@
       <c r="D29" t="s">
         <v>54</v>
       </c>
+      <c r="E29" t="s">
+        <v>262</v>
+      </c>
       <c r="F29">
         <v>4.32</v>
       </c>
       <c r="G29" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H29" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2037,10 +2138,10 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="G30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2056,11 +2157,17 @@
       <c r="D31" t="s">
         <v>90</v>
       </c>
+      <c r="E31" t="s">
+        <v>262</v>
+      </c>
       <c r="F31">
         <v>4.26</v>
       </c>
       <c r="G31" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H31" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2076,11 +2183,17 @@
       <c r="D32" t="s">
         <v>93</v>
       </c>
+      <c r="E32" t="s">
+        <v>262</v>
+      </c>
       <c r="F32">
         <v>4.3099999999999996</v>
       </c>
       <c r="G32" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H32" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2103,10 +2216,10 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="G33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2122,14 +2235,17 @@
       <c r="D34" t="s">
         <v>98</v>
       </c>
+      <c r="E34" t="s">
+        <v>262</v>
+      </c>
       <c r="F34">
         <v>4.46</v>
       </c>
       <c r="G34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2145,14 +2261,17 @@
       <c r="D35" t="s">
         <v>29</v>
       </c>
+      <c r="E35" t="s">
+        <v>262</v>
+      </c>
       <c r="F35">
         <v>4.45</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2168,14 +2287,17 @@
       <c r="D36" t="s">
         <v>54</v>
       </c>
+      <c r="E36" t="s">
+        <v>262</v>
+      </c>
       <c r="F36">
         <v>4.28</v>
       </c>
       <c r="G36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2191,14 +2313,17 @@
       <c r="D37" t="s">
         <v>101</v>
       </c>
+      <c r="E37" t="s">
+        <v>262</v>
+      </c>
       <c r="F37">
         <v>4.63</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2214,14 +2339,17 @@
       <c r="D38" t="s">
         <v>101</v>
       </c>
+      <c r="E38" t="s">
+        <v>262</v>
+      </c>
       <c r="F38">
         <v>4.42</v>
       </c>
       <c r="G38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2237,14 +2365,17 @@
       <c r="D39" t="s">
         <v>29</v>
       </c>
+      <c r="E39" t="s">
+        <v>262</v>
+      </c>
       <c r="F39">
         <v>4.4800000000000004</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2260,14 +2391,17 @@
       <c r="D40" t="s">
         <v>107</v>
       </c>
+      <c r="E40" t="s">
+        <v>262</v>
+      </c>
       <c r="F40">
         <v>4.4800000000000004</v>
       </c>
       <c r="G40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2283,11 +2417,17 @@
       <c r="D41" t="s">
         <v>109</v>
       </c>
+      <c r="E41" t="s">
+        <v>262</v>
+      </c>
       <c r="F41">
         <v>4.6100000000000003</v>
       </c>
       <c r="G41" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H41" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2310,7 +2450,10 @@
         <v>4.43</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H42" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2333,10 +2476,10 @@
         <v>4.34</v>
       </c>
       <c r="G43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2352,11 +2495,17 @@
       <c r="D44" t="s">
         <v>115</v>
       </c>
+      <c r="E44" t="s">
+        <v>262</v>
+      </c>
       <c r="F44">
         <v>4.6100000000000003</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H44" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2372,11 +2521,17 @@
       <c r="D45" t="s">
         <v>59</v>
       </c>
+      <c r="E45" t="s">
+        <v>262</v>
+      </c>
       <c r="F45">
         <v>4.45</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H45" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2392,11 +2547,17 @@
       <c r="D46" t="s">
         <v>33</v>
       </c>
+      <c r="E46" t="s">
+        <v>262</v>
+      </c>
       <c r="F46">
         <v>4.45</v>
       </c>
       <c r="G46" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H46" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2419,7 +2580,10 @@
         <v>4.78</v>
       </c>
       <c r="G47" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H47" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2435,11 +2599,17 @@
       <c r="D48" t="s">
         <v>121</v>
       </c>
+      <c r="E48" t="s">
+        <v>262</v>
+      </c>
       <c r="F48">
         <v>4.3</v>
       </c>
       <c r="G48" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H48" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2462,7 +2632,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="H49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2478,14 +2648,17 @@
       <c r="D50" t="s">
         <v>83</v>
       </c>
+      <c r="E50" t="s">
+        <v>262</v>
+      </c>
       <c r="F50">
         <v>4.95</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2501,11 +2674,17 @@
       <c r="D51" t="s">
         <v>25</v>
       </c>
+      <c r="E51" t="s">
+        <v>262</v>
+      </c>
       <c r="F51">
         <v>4.45</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H51" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2528,7 +2707,10 @@
         <v>4.76</v>
       </c>
       <c r="G52" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H52" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2544,11 +2726,17 @@
       <c r="D53" t="s">
         <v>83</v>
       </c>
+      <c r="E53" t="s">
+        <v>262</v>
+      </c>
       <c r="F53">
         <v>4.41</v>
       </c>
       <c r="G53" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H53" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2564,16 +2752,22 @@
       <c r="D54" t="s">
         <v>133</v>
       </c>
+      <c r="E54" t="s">
+        <v>262</v>
+      </c>
       <c r="F54">
         <v>4.53</v>
       </c>
       <c r="G54" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H54" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
         <v>75</v>
@@ -2591,10 +2785,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2610,14 +2804,17 @@
       <c r="D56" t="s">
         <v>64</v>
       </c>
+      <c r="E56" t="s">
+        <v>262</v>
+      </c>
       <c r="F56">
         <v>4.5599999999999996</v>
       </c>
       <c r="G56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2633,11 +2830,17 @@
       <c r="D57" t="s">
         <v>136</v>
       </c>
+      <c r="E57" t="s">
+        <v>262</v>
+      </c>
       <c r="F57">
         <v>4.7699999999999996</v>
       </c>
       <c r="G57" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H57" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2653,11 +2856,17 @@
       <c r="D58" t="s">
         <v>140</v>
       </c>
+      <c r="E58" t="s">
+        <v>262</v>
+      </c>
       <c r="F58">
         <v>4.4400000000000004</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H58" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2673,11 +2882,17 @@
       <c r="D59" t="s">
         <v>143</v>
       </c>
+      <c r="E59" t="s">
+        <v>262</v>
+      </c>
       <c r="F59">
         <v>4.5</v>
       </c>
       <c r="G59" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H59" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2693,14 +2908,17 @@
       <c r="D60" t="s">
         <v>146</v>
       </c>
+      <c r="E60" t="s">
+        <v>262</v>
+      </c>
       <c r="F60">
         <v>4.29</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2716,11 +2934,17 @@
       <c r="D61" t="s">
         <v>146</v>
       </c>
+      <c r="E61" t="s">
+        <v>262</v>
+      </c>
       <c r="F61">
         <v>4.51</v>
       </c>
       <c r="G61" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H61" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2736,14 +2960,17 @@
       <c r="D62" t="s">
         <v>151</v>
       </c>
+      <c r="E62" t="s">
+        <v>262</v>
+      </c>
       <c r="F62">
         <v>4.68</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2759,11 +2986,17 @@
       <c r="D63" t="s">
         <v>154</v>
       </c>
+      <c r="E63" t="s">
+        <v>262</v>
+      </c>
       <c r="F63">
         <v>4.28</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H63" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2779,11 +3012,17 @@
       <c r="D64" t="s">
         <v>157</v>
       </c>
+      <c r="E64" t="s">
+        <v>262</v>
+      </c>
       <c r="F64">
         <v>4.42</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H64" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2799,11 +3038,17 @@
       <c r="D65" t="s">
         <v>146</v>
       </c>
+      <c r="E65" t="s">
+        <v>262</v>
+      </c>
       <c r="F65">
         <v>4.3499999999999996</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H65" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2819,14 +3064,17 @@
       <c r="D66" t="s">
         <v>146</v>
       </c>
+      <c r="E66" t="s">
+        <v>262</v>
+      </c>
       <c r="F66">
         <v>4.43</v>
       </c>
       <c r="G66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2842,14 +3090,17 @@
       <c r="D67" t="s">
         <v>165</v>
       </c>
+      <c r="E67" t="s">
+        <v>262</v>
+      </c>
       <c r="F67">
         <v>4.3899999999999997</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2865,14 +3116,17 @@
       <c r="D68" t="s">
         <v>167</v>
       </c>
+      <c r="E68" t="s">
+        <v>262</v>
+      </c>
       <c r="F68">
         <v>4.6500000000000004</v>
       </c>
       <c r="G68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2888,14 +3142,17 @@
       <c r="D69" t="s">
         <v>169</v>
       </c>
+      <c r="E69" t="s">
+        <v>262</v>
+      </c>
       <c r="F69">
         <v>4.6399999999999997</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2911,14 +3168,17 @@
       <c r="D70" t="s">
         <v>169</v>
       </c>
+      <c r="E70" t="s">
+        <v>262</v>
+      </c>
       <c r="F70">
         <v>4.42</v>
       </c>
       <c r="G70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2941,10 +3201,10 @@
         <v>4.57</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2960,11 +3220,17 @@
       <c r="D72" t="s">
         <v>174</v>
       </c>
+      <c r="E72" t="s">
+        <v>262</v>
+      </c>
       <c r="F72">
         <v>4.55</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H72" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2980,11 +3246,17 @@
       <c r="D73" t="s">
         <v>146</v>
       </c>
+      <c r="E73" t="s">
+        <v>262</v>
+      </c>
       <c r="F73">
         <v>4.54</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H73" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3000,11 +3272,17 @@
       <c r="D74" t="s">
         <v>154</v>
       </c>
+      <c r="E74" t="s">
+        <v>262</v>
+      </c>
       <c r="F74">
         <v>4.3600000000000003</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H74" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3020,14 +3298,17 @@
       <c r="D75" t="s">
         <v>146</v>
       </c>
+      <c r="E75" t="s">
+        <v>262</v>
+      </c>
       <c r="F75">
         <v>4.32</v>
       </c>
       <c r="G75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3043,11 +3324,17 @@
       <c r="D76" t="s">
         <v>181</v>
       </c>
+      <c r="E76" t="s">
+        <v>262</v>
+      </c>
       <c r="F76">
         <v>4.22</v>
       </c>
       <c r="G76" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H76" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3070,7 +3357,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H77" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3086,11 +3376,17 @@
       <c r="D78" t="s">
         <v>188</v>
       </c>
+      <c r="E78" t="s">
+        <v>262</v>
+      </c>
       <c r="F78">
         <v>4.5</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H78" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3106,14 +3402,17 @@
       <c r="D79" t="s">
         <v>146</v>
       </c>
+      <c r="E79" t="s">
+        <v>262</v>
+      </c>
       <c r="F79">
         <v>4.26</v>
       </c>
       <c r="G79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3129,11 +3428,17 @@
       <c r="D80" t="s">
         <v>192</v>
       </c>
+      <c r="E80" t="s">
+        <v>262</v>
+      </c>
       <c r="F80">
         <v>4.38</v>
       </c>
       <c r="G80" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H80" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3149,14 +3454,17 @@
       <c r="D81" t="s">
         <v>194</v>
       </c>
+      <c r="E81" t="s">
+        <v>262</v>
+      </c>
       <c r="F81">
         <v>4.41</v>
       </c>
       <c r="G81" t="s">
+        <v>244</v>
+      </c>
+      <c r="H81" t="s">
         <v>245</v>
-      </c>
-      <c r="H81" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3179,7 +3487,10 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="G82" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H82" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3195,11 +3506,17 @@
       <c r="D83" t="s">
         <v>140</v>
       </c>
+      <c r="E83" t="s">
+        <v>262</v>
+      </c>
       <c r="F83">
         <v>4.66</v>
       </c>
       <c r="G83" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H83" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3215,14 +3532,17 @@
       <c r="D84" t="s">
         <v>165</v>
       </c>
+      <c r="E84" t="s">
+        <v>262</v>
+      </c>
       <c r="F84">
         <v>4.63</v>
       </c>
       <c r="G84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H84" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3238,11 +3558,17 @@
       <c r="D85" t="s">
         <v>165</v>
       </c>
+      <c r="E85" t="s">
+        <v>262</v>
+      </c>
       <c r="F85">
         <v>4.5199999999999996</v>
       </c>
       <c r="G85" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H85" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3258,11 +3584,17 @@
       <c r="D86" t="s">
         <v>202</v>
       </c>
+      <c r="E86" t="s">
+        <v>262</v>
+      </c>
       <c r="F86">
         <v>4.6100000000000003</v>
       </c>
       <c r="G86" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H86" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3278,14 +3610,17 @@
       <c r="D87" t="s">
         <v>154</v>
       </c>
+      <c r="E87" t="s">
+        <v>262</v>
+      </c>
       <c r="F87">
         <v>4.68</v>
       </c>
       <c r="G87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3301,11 +3636,17 @@
       <c r="D88" t="s">
         <v>206</v>
       </c>
+      <c r="E88" t="s">
+        <v>262</v>
+      </c>
       <c r="F88">
         <v>4.51</v>
       </c>
       <c r="G88" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H88" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3321,11 +3662,17 @@
       <c r="D89" t="s">
         <v>192</v>
       </c>
+      <c r="E89" t="s">
+        <v>262</v>
+      </c>
       <c r="F89">
         <v>4.9000000000000004</v>
       </c>
       <c r="G89" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H89" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3341,11 +3688,17 @@
       <c r="D90" t="s">
         <v>192</v>
       </c>
+      <c r="E90" t="s">
+        <v>262</v>
+      </c>
       <c r="F90">
         <v>4.96</v>
       </c>
       <c r="G90" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H90" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3361,14 +3714,17 @@
       <c r="D91" t="s">
         <v>154</v>
       </c>
+      <c r="E91" t="s">
+        <v>262</v>
+      </c>
       <c r="F91">
         <v>4.37</v>
       </c>
       <c r="G91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3384,14 +3740,17 @@
       <c r="D92" t="s">
         <v>151</v>
       </c>
+      <c r="E92" t="s">
+        <v>262</v>
+      </c>
       <c r="F92">
         <v>4.67</v>
       </c>
       <c r="G92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H92" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3407,11 +3766,17 @@
       <c r="D93" t="s">
         <v>213</v>
       </c>
+      <c r="E93" t="s">
+        <v>262</v>
+      </c>
       <c r="F93">
         <v>4.3499999999999996</v>
       </c>
       <c r="G93" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H93" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3434,10 +3799,10 @@
         <v>4.34</v>
       </c>
       <c r="G94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H94" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3453,11 +3818,17 @@
       <c r="D95" t="s">
         <v>219</v>
       </c>
+      <c r="E95" t="s">
+        <v>262</v>
+      </c>
       <c r="F95">
         <v>4.33</v>
       </c>
       <c r="G95" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H95" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3473,14 +3844,17 @@
       <c r="D96" t="s">
         <v>151</v>
       </c>
+      <c r="E96" t="s">
+        <v>262</v>
+      </c>
       <c r="F96">
         <v>4.66</v>
       </c>
       <c r="G96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3496,11 +3870,17 @@
       <c r="D97" t="s">
         <v>154</v>
       </c>
+      <c r="E97" t="s">
+        <v>262</v>
+      </c>
       <c r="F97">
         <v>4.49</v>
       </c>
       <c r="G97" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H97" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3523,7 +3903,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="G98" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H98" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3540,41 +3923,47 @@
         <v>228</v>
       </c>
       <c r="E99" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="F99">
         <v>4.42</v>
       </c>
       <c r="G99" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H99" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B100" t="s">
         <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D100" t="s">
         <v>154</v>
       </c>
+      <c r="E100" t="s">
+        <v>262</v>
+      </c>
       <c r="F100">
         <v>4.51</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B101" t="s">
         <v>225</v>
@@ -3592,12 +3981,15 @@
         <v>4.3</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H101" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B102" t="s">
         <v>225</v>
@@ -3606,18 +3998,24 @@
         <v>218</v>
       </c>
       <c r="D102" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="E102" t="s">
+        <v>262</v>
       </c>
       <c r="F102">
         <v>4.1900000000000004</v>
       </c>
       <c r="G102" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="H102" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" t="s">
         <v>225</v>
@@ -3628,36 +4026,48 @@
       <c r="D103" t="s">
         <v>194</v>
       </c>
+      <c r="E103" t="s">
+        <v>262</v>
+      </c>
       <c r="F103">
         <v>4.4000000000000004</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H103" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B104" t="s">
         <v>225</v>
       </c>
       <c r="C104" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" t="s">
         <v>237</v>
       </c>
-      <c r="D104" t="s">
-        <v>238</v>
+      <c r="E104" t="s">
+        <v>262</v>
       </c>
       <c r="F104">
         <v>4.33</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H104" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s">
         <v>225</v>
@@ -3668,16 +4078,22 @@
       <c r="D105" t="s">
         <v>197</v>
       </c>
+      <c r="E105" t="s">
+        <v>262</v>
+      </c>
       <c r="F105">
         <v>4.47</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H105" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B106" t="s">
         <v>225</v>
@@ -3695,12 +4111,15 @@
         <v>4.24</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="H106" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B107" t="s">
         <v>225</v>
@@ -3709,16 +4128,19 @@
         <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="E107" t="s">
+        <v>262</v>
       </c>
       <c r="F107">
         <v>4.3499999999999996</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H107" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
